--- a/Docs/Config/STC3117 OCV curve - default register values.xlsx
+++ b/Docs/Config/STC3117 OCV curve - default register values.xlsx
@@ -439,6 +439,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -453,15 +462,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -718,11 +718,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="210519880"/>
-        <c:axId val="210841104"/>
+        <c:axId val="247104832"/>
+        <c:axId val="248255648"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="210519880"/>
+        <c:axId val="247104832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -836,12 +836,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="210841104"/>
+        <c:crossAx val="248255648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="210841104"/>
+        <c:axId val="248255648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="3"/>
@@ -959,7 +959,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="210519880"/>
+        <c:crossAx val="247104832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1243,11 +1243,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="209909632"/>
-        <c:axId val="209910024"/>
+        <c:axId val="248254080"/>
+        <c:axId val="248254472"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="209909632"/>
+        <c:axId val="248254080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -1361,12 +1361,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="209910024"/>
+        <c:crossAx val="248254472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="209910024"/>
+        <c:axId val="248254472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="3"/>
@@ -1484,7 +1484,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="209909632"/>
+        <c:crossAx val="248254080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2999,7 +2999,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R46"/>
+  <dimension ref="A1:X46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
@@ -3015,40 +3015,40 @@
     <col min="17" max="17" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B1" s="10" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B2" s="24" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B3" s="24"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B4" s="10"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>45</v>
       </c>
       <c r="B5" s="10"/>
     </row>
-    <row r="6" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:18" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:24" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="23" t="s">
         <v>6</v>
       </c>
       <c r="C7" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="D7" s="31" t="s">
+      <c r="D7" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="30"/>
+      <c r="E7" s="33"/>
       <c r="G7" s="23" t="s">
         <v>6</v>
       </c>
@@ -3058,12 +3058,12 @@
       <c r="I7" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="J7" s="27" t="s">
+      <c r="J7" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="K7" s="28"/>
+      <c r="K7" s="31"/>
     </row>
-    <row r="8" spans="1:18" ht="37.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:24" ht="37.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="26"/>
       <c r="C8" s="13"/>
       <c r="D8" s="14" t="s">
@@ -3090,18 +3090,18 @@
       <c r="Q8" s="7"/>
       <c r="R8" s="9"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B9" s="20" t="s">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B9" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="3">
         <v>0</v>
       </c>
       <c r="D9" s="3">
-        <f>C9*0.5</f>
+        <f>C9/0.5</f>
         <v>0</v>
       </c>
-      <c r="E9" s="32" t="str">
+      <c r="E9" s="27" t="str">
         <f>DEC2HEX(D9, 2)</f>
         <v>00</v>
       </c>
@@ -3118,12 +3118,16 @@
         <f t="shared" ref="J9:J24" si="0">I9*1000/0.55</f>
         <v>5999.9999999999991</v>
       </c>
-      <c r="K9" s="33" t="str">
+      <c r="K9" s="28" t="str">
         <f>DEC2HEX(J9, 4)</f>
         <v>176F</v>
       </c>
+      <c r="X9">
+        <f>I9*1000</f>
+        <v>3300</v>
+      </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B10" s="20" t="s">
         <v>29</v>
       </c>
@@ -3131,12 +3135,12 @@
         <v>3</v>
       </c>
       <c r="D10" s="4">
-        <f>C10*0.5</f>
-        <v>1.5</v>
-      </c>
-      <c r="E10" s="33" t="str">
+        <f>C10/0.5</f>
+        <v>6</v>
+      </c>
+      <c r="E10" s="28" t="str">
         <f t="shared" ref="E10:E24" si="1">DEC2HEX(D10, 2)</f>
-        <v>01</v>
+        <v>06</v>
       </c>
       <c r="G10" s="20" t="s">
         <v>10</v>
@@ -3151,12 +3155,16 @@
         <f t="shared" si="0"/>
         <v>6438.181818181818</v>
       </c>
-      <c r="K10" s="33" t="str">
+      <c r="K10" s="28" t="str">
         <f t="shared" ref="K10:K24" si="2">DEC2HEX(J10, 4)</f>
         <v>1926</v>
       </c>
+      <c r="X10">
+        <f t="shared" ref="X10:X24" si="3">I10*1000</f>
+        <v>3541</v>
+      </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B11" s="20" t="s">
         <v>30</v>
       </c>
@@ -3164,12 +3172,12 @@
         <v>6</v>
       </c>
       <c r="D11" s="4">
-        <f t="shared" ref="D11:D24" si="3">C11*0.5</f>
-        <v>3</v>
-      </c>
-      <c r="E11" s="33" t="str">
+        <f t="shared" ref="D11:D24" si="4">C11/0.5</f>
+        <v>12</v>
+      </c>
+      <c r="E11" s="28" t="str">
         <f t="shared" si="1"/>
-        <v>03</v>
+        <v>0C</v>
       </c>
       <c r="G11" s="20" t="s">
         <v>11</v>
@@ -3184,12 +3192,16 @@
         <f t="shared" si="0"/>
         <v>6578.181818181818</v>
       </c>
-      <c r="K11" s="33" t="str">
+      <c r="K11" s="28" t="str">
         <f t="shared" si="2"/>
         <v>19B2</v>
       </c>
+      <c r="X11">
+        <f t="shared" si="3"/>
+        <v>3618</v>
+      </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B12" s="20" t="s">
         <v>31</v>
       </c>
@@ -3197,12 +3209,12 @@
         <v>10</v>
       </c>
       <c r="D12" s="4">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="E12" s="33" t="str">
+        <f t="shared" si="4"/>
+        <v>20</v>
+      </c>
+      <c r="E12" s="28" t="str">
         <f t="shared" si="1"/>
-        <v>05</v>
+        <v>14</v>
       </c>
       <c r="G12" s="20" t="s">
         <v>12</v>
@@ -3217,12 +3229,16 @@
         <f t="shared" si="0"/>
         <v>6650.9090909090901</v>
       </c>
-      <c r="K12" s="33" t="str">
+      <c r="K12" s="28" t="str">
         <f t="shared" si="2"/>
         <v>19FA</v>
       </c>
+      <c r="X12">
+        <f t="shared" si="3"/>
+        <v>3658</v>
+      </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B13" s="20" t="s">
         <v>32</v>
       </c>
@@ -3230,12 +3246,12 @@
         <v>15</v>
       </c>
       <c r="D13" s="4">
-        <f t="shared" si="3"/>
-        <v>7.5</v>
-      </c>
-      <c r="E13" s="33" t="str">
+        <f t="shared" si="4"/>
+        <v>30</v>
+      </c>
+      <c r="E13" s="28" t="str">
         <f t="shared" si="1"/>
-        <v>07</v>
+        <v>1E</v>
       </c>
       <c r="G13" s="20" t="s">
         <v>13</v>
@@ -3250,12 +3266,16 @@
         <f t="shared" si="0"/>
         <v>6718.181818181818</v>
       </c>
-      <c r="K13" s="33" t="str">
+      <c r="K13" s="28" t="str">
         <f t="shared" si="2"/>
         <v>1A3E</v>
       </c>
+      <c r="X13">
+        <f t="shared" si="3"/>
+        <v>3695</v>
+      </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B14" s="20" t="s">
         <v>33</v>
       </c>
@@ -3263,12 +3283,12 @@
         <v>20</v>
       </c>
       <c r="D14" s="4">
-        <f t="shared" si="3"/>
-        <v>10</v>
-      </c>
-      <c r="E14" s="33" t="str">
+        <f t="shared" si="4"/>
+        <v>40</v>
+      </c>
+      <c r="E14" s="28" t="str">
         <f t="shared" si="1"/>
-        <v>0A</v>
+        <v>28</v>
       </c>
       <c r="G14" s="20" t="s">
         <v>19</v>
@@ -3283,12 +3303,16 @@
         <f t="shared" si="0"/>
         <v>6765.454545454545</v>
       </c>
-      <c r="K14" s="33" t="str">
+      <c r="K14" s="28" t="str">
         <f t="shared" si="2"/>
         <v>1A6D</v>
       </c>
+      <c r="X14">
+        <f t="shared" si="3"/>
+        <v>3721</v>
+      </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B15" s="20" t="s">
         <v>34</v>
       </c>
@@ -3296,12 +3320,12 @@
         <v>25</v>
       </c>
       <c r="D15" s="4">
-        <f t="shared" si="3"/>
-        <v>12.5</v>
-      </c>
-      <c r="E15" s="33" t="str">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="E15" s="28" t="str">
         <f t="shared" si="1"/>
-        <v>0C</v>
+        <v>32</v>
       </c>
       <c r="G15" s="20" t="s">
         <v>20</v>
@@ -3316,12 +3340,16 @@
         <f t="shared" si="0"/>
         <v>6812.7272727272721</v>
       </c>
-      <c r="K15" s="33" t="str">
+      <c r="K15" s="28" t="str">
         <f t="shared" si="2"/>
         <v>1A9C</v>
       </c>
+      <c r="X15">
+        <f t="shared" si="3"/>
+        <v>3747</v>
+      </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B16" s="20" t="s">
         <v>35</v>
       </c>
@@ -3329,12 +3357,12 @@
         <v>30</v>
       </c>
       <c r="D16" s="4">
-        <f t="shared" si="3"/>
-        <v>15</v>
-      </c>
-      <c r="E16" s="33" t="str">
+        <f t="shared" si="4"/>
+        <v>60</v>
+      </c>
+      <c r="E16" s="28" t="str">
         <f t="shared" si="1"/>
-        <v>0F</v>
+        <v>3C</v>
       </c>
       <c r="G16" s="20" t="s">
         <v>21</v>
@@ -3349,12 +3377,16 @@
         <f t="shared" si="0"/>
         <v>6838.181818181818</v>
       </c>
-      <c r="K16" s="33" t="str">
+      <c r="K16" s="28" t="str">
         <f t="shared" si="2"/>
         <v>1AB6</v>
       </c>
+      <c r="X16">
+        <f t="shared" si="3"/>
+        <v>3761</v>
+      </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B17" s="20" t="s">
         <v>36</v>
       </c>
@@ -3362,12 +3394,12 @@
         <v>40</v>
       </c>
       <c r="D17" s="4">
-        <f t="shared" si="3"/>
-        <v>20</v>
-      </c>
-      <c r="E17" s="33" t="str">
+        <f t="shared" si="4"/>
+        <v>80</v>
+      </c>
+      <c r="E17" s="28" t="str">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="G17" s="20" t="s">
         <v>14</v>
@@ -3382,12 +3414,16 @@
         <f t="shared" si="0"/>
         <v>6869.0909090909081</v>
       </c>
-      <c r="K17" s="33" t="str">
+      <c r="K17" s="28" t="str">
         <f t="shared" si="2"/>
         <v>1AD5</v>
       </c>
+      <c r="X17">
+        <f t="shared" si="3"/>
+        <v>3778</v>
+      </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B18" s="20" t="s">
         <v>37</v>
       </c>
@@ -3395,12 +3431,12 @@
         <v>50</v>
       </c>
       <c r="D18" s="4">
-        <f t="shared" si="3"/>
-        <v>25</v>
-      </c>
-      <c r="E18" s="33" t="str">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="E18" s="28" t="str">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="G18" s="20" t="s">
         <v>15</v>
@@ -3415,12 +3451,16 @@
         <f t="shared" si="0"/>
         <v>6912.7272727272721</v>
       </c>
-      <c r="K18" s="33" t="str">
+      <c r="K18" s="28" t="str">
         <f t="shared" si="2"/>
         <v>1B00</v>
       </c>
+      <c r="X18">
+        <f t="shared" si="3"/>
+        <v>3802</v>
+      </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B19" s="20" t="s">
         <v>38</v>
       </c>
@@ -3428,12 +3468,12 @@
         <v>60</v>
       </c>
       <c r="D19" s="4">
-        <f t="shared" si="3"/>
-        <v>30</v>
-      </c>
-      <c r="E19" s="33" t="str">
+        <f t="shared" si="4"/>
+        <v>120</v>
+      </c>
+      <c r="E19" s="28" t="str">
         <f t="shared" si="1"/>
-        <v>1E</v>
+        <v>78</v>
       </c>
       <c r="G19" s="20" t="s">
         <v>16</v>
@@ -3448,12 +3488,16 @@
         <f t="shared" si="0"/>
         <v>7023.6363636363631</v>
       </c>
-      <c r="K19" s="33" t="str">
+      <c r="K19" s="28" t="str">
         <f t="shared" si="2"/>
         <v>1B6F</v>
       </c>
+      <c r="X19">
+        <f t="shared" si="3"/>
+        <v>3863</v>
+      </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B20" s="20" t="s">
         <v>39</v>
       </c>
@@ -3461,12 +3505,12 @@
         <v>65</v>
       </c>
       <c r="D20" s="4">
-        <f t="shared" si="3"/>
-        <v>32.5</v>
-      </c>
-      <c r="E20" s="33" t="str">
+        <f t="shared" si="4"/>
+        <v>130</v>
+      </c>
+      <c r="E20" s="28" t="str">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>82</v>
       </c>
       <c r="G20" s="20" t="s">
         <v>17</v>
@@ -3481,12 +3525,16 @@
         <f t="shared" si="0"/>
         <v>7089.0909090909081</v>
       </c>
-      <c r="K20" s="33" t="str">
+      <c r="K20" s="28" t="str">
         <f t="shared" si="2"/>
         <v>1BB1</v>
       </c>
+      <c r="X20">
+        <f t="shared" si="3"/>
+        <v>3899</v>
+      </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B21" s="20" t="s">
         <v>40</v>
       </c>
@@ -3494,12 +3542,12 @@
         <v>70</v>
       </c>
       <c r="D21" s="4">
-        <f t="shared" si="3"/>
-        <v>35</v>
-      </c>
-      <c r="E21" s="33" t="str">
+        <f t="shared" si="4"/>
+        <v>140</v>
+      </c>
+      <c r="E21" s="28" t="str">
         <f t="shared" si="1"/>
-        <v>23</v>
+        <v>8C</v>
       </c>
       <c r="G21" s="20" t="s">
         <v>18</v>
@@ -3514,12 +3562,16 @@
         <f t="shared" si="0"/>
         <v>7143.6363636363631</v>
       </c>
-      <c r="K21" s="33" t="str">
+      <c r="K21" s="28" t="str">
         <f t="shared" si="2"/>
         <v>1BE7</v>
       </c>
+      <c r="X21">
+        <f t="shared" si="3"/>
+        <v>3929</v>
+      </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B22" s="20" t="s">
         <v>41</v>
       </c>
@@ -3527,12 +3579,12 @@
         <v>80</v>
       </c>
       <c r="D22" s="4">
-        <f t="shared" si="3"/>
-        <v>40</v>
-      </c>
-      <c r="E22" s="33" t="str">
+        <f t="shared" si="4"/>
+        <v>160</v>
+      </c>
+      <c r="E22" s="28" t="str">
         <f t="shared" si="1"/>
-        <v>28</v>
+        <v>A0</v>
       </c>
       <c r="G22" s="20" t="s">
         <v>22</v>
@@ -3547,12 +3599,16 @@
         <f t="shared" si="0"/>
         <v>7256.363636363636</v>
       </c>
-      <c r="K22" s="33" t="str">
+      <c r="K22" s="28" t="str">
         <f t="shared" si="2"/>
         <v>1C58</v>
       </c>
+      <c r="X22">
+        <f t="shared" si="3"/>
+        <v>3991</v>
+      </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B23" s="20" t="s">
         <v>42</v>
       </c>
@@ -3560,12 +3616,12 @@
         <v>90</v>
       </c>
       <c r="D23" s="4">
-        <f t="shared" si="3"/>
-        <v>45</v>
-      </c>
-      <c r="E23" s="33" t="str">
+        <f t="shared" si="4"/>
+        <v>180</v>
+      </c>
+      <c r="E23" s="28" t="str">
         <f t="shared" si="1"/>
-        <v>2D</v>
+        <v>B4</v>
       </c>
       <c r="G23" s="20" t="s">
         <v>23</v>
@@ -3580,12 +3636,16 @@
         <f t="shared" si="0"/>
         <v>7410.9090909090892</v>
       </c>
-      <c r="K23" s="33" t="str">
+      <c r="K23" s="28" t="str">
         <f t="shared" si="2"/>
         <v>1CF2</v>
       </c>
+      <c r="X23">
+        <f t="shared" si="3"/>
+        <v>4075.9999999999995</v>
+      </c>
     </row>
-    <row r="24" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B24" s="21" t="s">
         <v>43</v>
       </c>
@@ -3593,12 +3653,12 @@
         <v>100</v>
       </c>
       <c r="D24" s="5">
-        <f t="shared" si="3"/>
-        <v>50</v>
-      </c>
-      <c r="E24" s="34" t="str">
+        <f t="shared" si="4"/>
+        <v>200</v>
+      </c>
+      <c r="E24" s="29" t="str">
         <f t="shared" si="1"/>
-        <v>32</v>
+        <v>C8</v>
       </c>
       <c r="G24" s="21" t="s">
         <v>24</v>
@@ -3613,35 +3673,39 @@
         <f t="shared" si="0"/>
         <v>7592.7272727272721</v>
       </c>
-      <c r="K24" s="34" t="str">
+      <c r="K24" s="29" t="str">
         <f t="shared" si="2"/>
         <v>1DA8</v>
       </c>
+      <c r="X24">
+        <f t="shared" si="3"/>
+        <v>4176</v>
+      </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
       <c r="G25" s="9"/>
       <c r="H25" s="8"/>
       <c r="I25" s="9"/>
       <c r="J25" s="8"/>
       <c r="K25" s="8"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="29" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="29" spans="1:24" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B29" s="23" t="s">
         <v>6</v>
       </c>
       <c r="C29" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="D29" s="31" t="s">
+      <c r="D29" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="E29" s="30"/>
+      <c r="E29" s="33"/>
       <c r="G29" s="23" t="s">
         <v>6</v>
       </c>
@@ -3651,12 +3715,12 @@
       <c r="I29" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="J29" s="29" t="s">
+      <c r="J29" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="K29" s="30"/>
+      <c r="K29" s="33"/>
     </row>
-    <row r="30" spans="1:11" ht="37.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:24" ht="37.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B30" s="26"/>
       <c r="C30" s="13"/>
       <c r="D30" s="14" t="s">
@@ -3677,18 +3741,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B31" s="20" t="s">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B31" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="C31" s="4">
+      <c r="C31" s="3">
         <v>0</v>
       </c>
       <c r="D31" s="3">
-        <f>C31*0.5</f>
+        <f>C31/0.5</f>
         <v>0</v>
       </c>
-      <c r="E31" s="32" t="str">
+      <c r="E31" s="27" t="str">
         <f>DEC2HEX(D31, 2)</f>
         <v>00</v>
       </c>
@@ -3702,15 +3766,15 @@
         <v>3.3</v>
       </c>
       <c r="J31" s="16">
-        <f t="shared" ref="J31:J46" si="4">I31*1000/0.55</f>
+        <f t="shared" ref="J31:J46" si="5">I31*1000/0.55</f>
         <v>5999.9999999999991</v>
       </c>
-      <c r="K31" s="33" t="str">
+      <c r="K31" s="28" t="str">
         <f>DEC2HEX(J31, 4)</f>
         <v>176F</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B32" s="20" t="s">
         <v>29</v>
       </c>
@@ -3718,12 +3782,12 @@
         <v>3</v>
       </c>
       <c r="D32" s="4">
-        <f>C32*0.5</f>
-        <v>1.5</v>
-      </c>
-      <c r="E32" s="33" t="str">
-        <f t="shared" ref="E32:E46" si="5">DEC2HEX(D32, 2)</f>
-        <v>01</v>
+        <f>C32/0.5</f>
+        <v>6</v>
+      </c>
+      <c r="E32" s="28" t="str">
+        <f t="shared" ref="E32:E46" si="6">DEC2HEX(D32, 2)</f>
+        <v>06</v>
       </c>
       <c r="G32" s="20" t="s">
         <v>10</v>
@@ -3735,11 +3799,11 @@
         <v>3.5710000000000002</v>
       </c>
       <c r="J32" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6492.7272727272721</v>
       </c>
-      <c r="K32" s="33" t="str">
-        <f t="shared" ref="K32:K46" si="6">DEC2HEX(J32, 4)</f>
+      <c r="K32" s="28" t="str">
+        <f t="shared" ref="K32:K46" si="7">DEC2HEX(J32, 4)</f>
         <v>195C</v>
       </c>
     </row>
@@ -3751,12 +3815,12 @@
         <v>6</v>
       </c>
       <c r="D33" s="4">
-        <f t="shared" ref="D33:D46" si="7">C33*0.5</f>
-        <v>3</v>
-      </c>
-      <c r="E33" s="33" t="str">
-        <f t="shared" si="5"/>
-        <v>03</v>
+        <f t="shared" ref="D33:D46" si="8">C33/0.5</f>
+        <v>12</v>
+      </c>
+      <c r="E33" s="28" t="str">
+        <f t="shared" si="6"/>
+        <v>0C</v>
       </c>
       <c r="G33" s="20" t="s">
         <v>11</v>
@@ -3768,11 +3832,11 @@
         <v>3.6509999999999998</v>
       </c>
       <c r="J33" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6638.181818181818</v>
       </c>
-      <c r="K33" s="33" t="str">
-        <f t="shared" si="6"/>
+      <c r="K33" s="28" t="str">
+        <f t="shared" si="7"/>
         <v>19EE</v>
       </c>
     </row>
@@ -3784,12 +3848,12 @@
         <v>10</v>
       </c>
       <c r="D34" s="4">
-        <f t="shared" si="7"/>
-        <v>5</v>
-      </c>
-      <c r="E34" s="33" t="str">
-        <f t="shared" si="5"/>
-        <v>05</v>
+        <f t="shared" si="8"/>
+        <v>20</v>
+      </c>
+      <c r="E34" s="28" t="str">
+        <f t="shared" si="6"/>
+        <v>14</v>
       </c>
       <c r="G34" s="20" t="s">
         <v>12</v>
@@ -3801,11 +3865,11 @@
         <v>3.6749999999999998</v>
       </c>
       <c r="J34" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6681.8181818181811</v>
       </c>
-      <c r="K34" s="33" t="str">
-        <f t="shared" si="6"/>
+      <c r="K34" s="28" t="str">
+        <f t="shared" si="7"/>
         <v>1A19</v>
       </c>
     </row>
@@ -3817,12 +3881,12 @@
         <v>15</v>
       </c>
       <c r="D35" s="4">
-        <f t="shared" si="7"/>
-        <v>7.5</v>
-      </c>
-      <c r="E35" s="33" t="str">
-        <f t="shared" si="5"/>
-        <v>07</v>
+        <f t="shared" si="8"/>
+        <v>30</v>
+      </c>
+      <c r="E35" s="28" t="str">
+        <f t="shared" si="6"/>
+        <v>1E</v>
       </c>
       <c r="G35" s="20" t="s">
         <v>13</v>
@@ -3834,11 +3898,11 @@
         <v>3.71</v>
       </c>
       <c r="J35" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6745.454545454545</v>
       </c>
-      <c r="K35" s="33" t="str">
-        <f t="shared" si="6"/>
+      <c r="K35" s="28" t="str">
+        <f t="shared" si="7"/>
         <v>1A59</v>
       </c>
     </row>
@@ -3850,12 +3914,12 @@
         <v>20</v>
       </c>
       <c r="D36" s="4">
-        <f t="shared" si="7"/>
-        <v>10</v>
-      </c>
-      <c r="E36" s="33" t="str">
-        <f t="shared" si="5"/>
-        <v>0A</v>
+        <f t="shared" si="8"/>
+        <v>40</v>
+      </c>
+      <c r="E36" s="28" t="str">
+        <f t="shared" si="6"/>
+        <v>28</v>
       </c>
       <c r="G36" s="20" t="s">
         <v>19</v>
@@ -3867,11 +3931,11 @@
         <v>3.7429999999999999</v>
       </c>
       <c r="J36" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6805.454545454545</v>
       </c>
-      <c r="K36" s="33" t="str">
-        <f t="shared" si="6"/>
+      <c r="K36" s="28" t="str">
+        <f t="shared" si="7"/>
         <v>1A95</v>
       </c>
     </row>
@@ -3883,12 +3947,12 @@
         <v>25</v>
       </c>
       <c r="D37" s="4">
-        <f t="shared" si="7"/>
-        <v>12.5</v>
-      </c>
-      <c r="E37" s="33" t="str">
-        <f t="shared" si="5"/>
-        <v>0C</v>
+        <f t="shared" si="8"/>
+        <v>50</v>
+      </c>
+      <c r="E37" s="28" t="str">
+        <f t="shared" si="6"/>
+        <v>32</v>
       </c>
       <c r="G37" s="20" t="s">
         <v>20</v>
@@ -3900,11 +3964,11 @@
         <v>3.7610000000000001</v>
       </c>
       <c r="J37" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6838.181818181818</v>
       </c>
-      <c r="K37" s="33" t="str">
-        <f t="shared" si="6"/>
+      <c r="K37" s="28" t="str">
+        <f t="shared" si="7"/>
         <v>1AB6</v>
       </c>
     </row>
@@ -3916,12 +3980,12 @@
         <v>30</v>
       </c>
       <c r="D38" s="4">
-        <f t="shared" si="7"/>
-        <v>15</v>
-      </c>
-      <c r="E38" s="33" t="str">
-        <f t="shared" si="5"/>
-        <v>0F</v>
+        <f t="shared" si="8"/>
+        <v>60</v>
+      </c>
+      <c r="E38" s="28" t="str">
+        <f t="shared" si="6"/>
+        <v>3C</v>
       </c>
       <c r="G38" s="20" t="s">
         <v>21</v>
@@ -3933,11 +3997,11 @@
         <v>3.77</v>
       </c>
       <c r="J38" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6854.545454545454</v>
       </c>
-      <c r="K38" s="33" t="str">
-        <f t="shared" si="6"/>
+      <c r="K38" s="28" t="str">
+        <f t="shared" si="7"/>
         <v>1AC6</v>
       </c>
     </row>
@@ -3949,12 +4013,12 @@
         <v>40</v>
       </c>
       <c r="D39" s="4">
-        <f t="shared" si="7"/>
-        <v>20</v>
-      </c>
-      <c r="E39" s="33" t="str">
-        <f t="shared" si="5"/>
-        <v>14</v>
+        <f t="shared" si="8"/>
+        <v>80</v>
+      </c>
+      <c r="E39" s="28" t="str">
+        <f t="shared" si="6"/>
+        <v>50</v>
       </c>
       <c r="G39" s="20" t="s">
         <v>14</v>
@@ -3966,11 +4030,11 @@
         <v>3.79</v>
       </c>
       <c r="J39" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6890.9090909090901</v>
       </c>
-      <c r="K39" s="33" t="str">
-        <f t="shared" si="6"/>
+      <c r="K39" s="28" t="str">
+        <f t="shared" si="7"/>
         <v>1AEA</v>
       </c>
     </row>
@@ -3982,12 +4046,12 @@
         <v>50</v>
       </c>
       <c r="D40" s="4">
-        <f t="shared" si="7"/>
-        <v>25</v>
-      </c>
-      <c r="E40" s="33" t="str">
-        <f t="shared" si="5"/>
-        <v>19</v>
+        <f t="shared" si="8"/>
+        <v>100</v>
+      </c>
+      <c r="E40" s="28" t="str">
+        <f t="shared" si="6"/>
+        <v>64</v>
       </c>
       <c r="G40" s="20" t="s">
         <v>15</v>
@@ -3999,11 +4063,11 @@
         <v>3.8250000000000002</v>
       </c>
       <c r="J40" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6954.545454545454</v>
       </c>
-      <c r="K40" s="33" t="str">
-        <f t="shared" si="6"/>
+      <c r="K40" s="28" t="str">
+        <f t="shared" si="7"/>
         <v>1B2A</v>
       </c>
     </row>
@@ -4015,12 +4079,12 @@
         <v>60</v>
       </c>
       <c r="D41" s="4">
-        <f t="shared" si="7"/>
-        <v>30</v>
-      </c>
-      <c r="E41" s="33" t="str">
-        <f t="shared" si="5"/>
-        <v>1E</v>
+        <f t="shared" si="8"/>
+        <v>120</v>
+      </c>
+      <c r="E41" s="28" t="str">
+        <f t="shared" si="6"/>
+        <v>78</v>
       </c>
       <c r="G41" s="20" t="s">
         <v>16</v>
@@ -4032,11 +4096,11 @@
         <v>3.9140000000000001</v>
       </c>
       <c r="J41" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7116.363636363636</v>
       </c>
-      <c r="K41" s="33" t="str">
-        <f t="shared" si="6"/>
+      <c r="K41" s="28" t="str">
+        <f t="shared" si="7"/>
         <v>1BCC</v>
       </c>
     </row>
@@ -4048,12 +4112,12 @@
         <v>65</v>
       </c>
       <c r="D42" s="4">
-        <f t="shared" si="7"/>
-        <v>32.5</v>
-      </c>
-      <c r="E42" s="33" t="str">
-        <f t="shared" si="5"/>
-        <v>20</v>
+        <f t="shared" si="8"/>
+        <v>130</v>
+      </c>
+      <c r="E42" s="28" t="str">
+        <f t="shared" si="6"/>
+        <v>82</v>
       </c>
       <c r="G42" s="20" t="s">
         <v>17</v>
@@ -4065,11 +4129,11 @@
         <v>3.9529999999999998</v>
       </c>
       <c r="J42" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7187.272727272727</v>
       </c>
-      <c r="K42" s="33" t="str">
-        <f t="shared" si="6"/>
+      <c r="K42" s="28" t="str">
+        <f t="shared" si="7"/>
         <v>1C13</v>
       </c>
     </row>
@@ -4081,12 +4145,12 @@
         <v>70</v>
       </c>
       <c r="D43" s="4">
-        <f t="shared" si="7"/>
-        <v>35</v>
-      </c>
-      <c r="E43" s="33" t="str">
-        <f t="shared" si="5"/>
-        <v>23</v>
+        <f t="shared" si="8"/>
+        <v>140</v>
+      </c>
+      <c r="E43" s="28" t="str">
+        <f t="shared" si="6"/>
+        <v>8C</v>
       </c>
       <c r="G43" s="20" t="s">
         <v>18</v>
@@ -4098,11 +4162,11 @@
         <v>3.99</v>
       </c>
       <c r="J43" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7254.545454545454</v>
       </c>
-      <c r="K43" s="33" t="str">
-        <f t="shared" si="6"/>
+      <c r="K43" s="28" t="str">
+        <f t="shared" si="7"/>
         <v>1C56</v>
       </c>
     </row>
@@ -4114,12 +4178,12 @@
         <v>80</v>
       </c>
       <c r="D44" s="4">
-        <f t="shared" si="7"/>
-        <v>40</v>
-      </c>
-      <c r="E44" s="33" t="str">
-        <f t="shared" si="5"/>
-        <v>28</v>
+        <f t="shared" si="8"/>
+        <v>160</v>
+      </c>
+      <c r="E44" s="28" t="str">
+        <f t="shared" si="6"/>
+        <v>A0</v>
       </c>
       <c r="G44" s="20" t="s">
         <v>22</v>
@@ -4131,11 +4195,11 @@
         <v>4.0880000000000001</v>
       </c>
       <c r="J44" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7432.7272727272721</v>
       </c>
-      <c r="K44" s="33" t="str">
-        <f t="shared" si="6"/>
+      <c r="K44" s="28" t="str">
+        <f t="shared" si="7"/>
         <v>1D08</v>
       </c>
     </row>
@@ -4147,12 +4211,12 @@
         <v>90</v>
       </c>
       <c r="D45" s="4">
-        <f t="shared" si="7"/>
-        <v>45</v>
-      </c>
-      <c r="E45" s="33" t="str">
-        <f t="shared" si="5"/>
-        <v>2D</v>
+        <f t="shared" si="8"/>
+        <v>180</v>
+      </c>
+      <c r="E45" s="28" t="str">
+        <f t="shared" si="6"/>
+        <v>B4</v>
       </c>
       <c r="G45" s="20" t="s">
         <v>23</v>
@@ -4164,11 +4228,11 @@
         <v>4.1970000000000001</v>
       </c>
       <c r="J45" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7630.9090909090901</v>
       </c>
-      <c r="K45" s="33" t="str">
-        <f t="shared" si="6"/>
+      <c r="K45" s="28" t="str">
+        <f t="shared" si="7"/>
         <v>1DCE</v>
       </c>
     </row>
@@ -4180,12 +4244,12 @@
         <v>100</v>
       </c>
       <c r="D46" s="5">
-        <f t="shared" si="7"/>
-        <v>50</v>
-      </c>
-      <c r="E46" s="34" t="str">
-        <f t="shared" si="5"/>
-        <v>32</v>
+        <f t="shared" si="8"/>
+        <v>200</v>
+      </c>
+      <c r="E46" s="29" t="str">
+        <f t="shared" si="6"/>
+        <v>C8</v>
       </c>
       <c r="G46" s="21" t="s">
         <v>24</v>
@@ -4197,11 +4261,11 @@
         <v>4.3129999999999997</v>
       </c>
       <c r="J46" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7841.8181818181811</v>
       </c>
-      <c r="K46" s="34" t="str">
-        <f t="shared" si="6"/>
+      <c r="K46" s="29" t="str">
+        <f t="shared" si="7"/>
         <v>1EA1</v>
       </c>
     </row>

--- a/Docs/Config/STC3117 OCV curve - default register values.xlsx
+++ b/Docs/Config/STC3117 OCV curve - default register values.xlsx
@@ -718,11 +718,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="247104832"/>
-        <c:axId val="248255648"/>
+        <c:axId val="254725640"/>
+        <c:axId val="255380792"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="247104832"/>
+        <c:axId val="254725640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -836,12 +836,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="248255648"/>
+        <c:crossAx val="255380792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="248255648"/>
+        <c:axId val="255380792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="3"/>
@@ -959,7 +959,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="247104832"/>
+        <c:crossAx val="254725640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1243,11 +1243,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="248254080"/>
-        <c:axId val="248254472"/>
+        <c:axId val="254698888"/>
+        <c:axId val="254811928"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="248254080"/>
+        <c:axId val="254698888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -1361,12 +1361,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="248254472"/>
+        <c:crossAx val="254811928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="248254472"/>
+        <c:axId val="254811928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="3"/>
@@ -1484,7 +1484,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="248254080"/>
+        <c:crossAx val="254698888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2999,11 +2999,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X46"/>
+  <dimension ref="A1:R46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3015,30 +3013,30 @@
     <col min="17" max="17" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B1" s="10" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B2" s="24" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B3" s="24"/>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B4" s="10"/>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>45</v>
       </c>
       <c r="B5" s="10"/>
     </row>
-    <row r="6" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:24" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:18" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="23" t="s">
         <v>6</v>
       </c>
@@ -3063,7 +3061,7 @@
       </c>
       <c r="K7" s="31"/>
     </row>
-    <row r="8" spans="1:24" ht="37.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" ht="37.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="26"/>
       <c r="C8" s="13"/>
       <c r="D8" s="14" t="s">
@@ -3090,7 +3088,7 @@
       <c r="Q8" s="7"/>
       <c r="R8" s="9"/>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B9" s="19" t="s">
         <v>28</v>
       </c>
@@ -3115,19 +3113,15 @@
         <v>3.3</v>
       </c>
       <c r="J9" s="16">
-        <f t="shared" ref="J9:J24" si="0">I9*1000/0.55</f>
-        <v>5999.9999999999991</v>
+        <f>ROUND((I9*1000)/0.55, 0)</f>
+        <v>6000</v>
       </c>
       <c r="K9" s="28" t="str">
         <f>DEC2HEX(J9, 4)</f>
-        <v>176F</v>
-      </c>
-      <c r="X9">
-        <f>I9*1000</f>
-        <v>3300</v>
+        <v>1770</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B10" s="20" t="s">
         <v>29</v>
       </c>
@@ -3139,7 +3133,7 @@
         <v>6</v>
       </c>
       <c r="E10" s="28" t="str">
-        <f t="shared" ref="E10:E24" si="1">DEC2HEX(D10, 2)</f>
+        <f t="shared" ref="E10:E24" si="0">DEC2HEX(D10, 2)</f>
         <v>06</v>
       </c>
       <c r="G10" s="20" t="s">
@@ -3152,19 +3146,15 @@
         <v>3.5409999999999999</v>
       </c>
       <c r="J10" s="16">
-        <f t="shared" si="0"/>
-        <v>6438.181818181818</v>
+        <f t="shared" ref="J10:J24" si="1">ROUND((I10*1000)/0.55, 0)</f>
+        <v>6438</v>
       </c>
       <c r="K10" s="28" t="str">
         <f t="shared" ref="K10:K24" si="2">DEC2HEX(J10, 4)</f>
         <v>1926</v>
       </c>
-      <c r="X10">
-        <f t="shared" ref="X10:X24" si="3">I10*1000</f>
-        <v>3541</v>
-      </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B11" s="20" t="s">
         <v>30</v>
       </c>
@@ -3172,11 +3162,11 @@
         <v>6</v>
       </c>
       <c r="D11" s="4">
-        <f t="shared" ref="D11:D24" si="4">C11/0.5</f>
+        <f t="shared" ref="D11:D24" si="3">C11/0.5</f>
         <v>12</v>
       </c>
       <c r="E11" s="28" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0C</v>
       </c>
       <c r="G11" s="20" t="s">
@@ -3189,19 +3179,15 @@
         <v>3.6179999999999999</v>
       </c>
       <c r="J11" s="16">
-        <f t="shared" si="0"/>
-        <v>6578.181818181818</v>
+        <f t="shared" si="1"/>
+        <v>6578</v>
       </c>
       <c r="K11" s="28" t="str">
         <f t="shared" si="2"/>
         <v>19B2</v>
       </c>
-      <c r="X11">
-        <f t="shared" si="3"/>
-        <v>3618</v>
-      </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B12" s="20" t="s">
         <v>31</v>
       </c>
@@ -3209,11 +3195,11 @@
         <v>10</v>
       </c>
       <c r="D12" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="E12" s="28" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="G12" s="20" t="s">
@@ -3226,19 +3212,15 @@
         <v>3.6579999999999999</v>
       </c>
       <c r="J12" s="16">
-        <f t="shared" si="0"/>
-        <v>6650.9090909090901</v>
+        <f t="shared" si="1"/>
+        <v>6651</v>
       </c>
       <c r="K12" s="28" t="str">
         <f t="shared" si="2"/>
-        <v>19FA</v>
-      </c>
-      <c r="X12">
-        <f t="shared" si="3"/>
-        <v>3658</v>
+        <v>19FB</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B13" s="20" t="s">
         <v>32</v>
       </c>
@@ -3246,11 +3228,11 @@
         <v>15</v>
       </c>
       <c r="D13" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>30</v>
       </c>
       <c r="E13" s="28" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1E</v>
       </c>
       <c r="G13" s="20" t="s">
@@ -3263,19 +3245,15 @@
         <v>3.6949999999999998</v>
       </c>
       <c r="J13" s="16">
-        <f t="shared" si="0"/>
-        <v>6718.181818181818</v>
+        <f t="shared" si="1"/>
+        <v>6718</v>
       </c>
       <c r="K13" s="28" t="str">
         <f t="shared" si="2"/>
         <v>1A3E</v>
       </c>
-      <c r="X13">
-        <f t="shared" si="3"/>
-        <v>3695</v>
-      </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B14" s="20" t="s">
         <v>33</v>
       </c>
@@ -3283,11 +3261,11 @@
         <v>20</v>
       </c>
       <c r="D14" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>40</v>
       </c>
       <c r="E14" s="28" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="G14" s="20" t="s">
@@ -3300,19 +3278,15 @@
         <v>3.7210000000000001</v>
       </c>
       <c r="J14" s="16">
-        <f t="shared" si="0"/>
-        <v>6765.454545454545</v>
+        <f t="shared" si="1"/>
+        <v>6765</v>
       </c>
       <c r="K14" s="28" t="str">
         <f t="shared" si="2"/>
         <v>1A6D</v>
       </c>
-      <c r="X14">
-        <f t="shared" si="3"/>
-        <v>3721</v>
-      </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B15" s="20" t="s">
         <v>34</v>
       </c>
@@ -3320,11 +3294,11 @@
         <v>25</v>
       </c>
       <c r="D15" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="E15" s="28" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>32</v>
       </c>
       <c r="G15" s="20" t="s">
@@ -3337,19 +3311,15 @@
         <v>3.7469999999999999</v>
       </c>
       <c r="J15" s="16">
-        <f t="shared" si="0"/>
-        <v>6812.7272727272721</v>
+        <f t="shared" si="1"/>
+        <v>6813</v>
       </c>
       <c r="K15" s="28" t="str">
         <f t="shared" si="2"/>
-        <v>1A9C</v>
-      </c>
-      <c r="X15">
-        <f t="shared" si="3"/>
-        <v>3747</v>
+        <v>1A9D</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B16" s="20" t="s">
         <v>35</v>
       </c>
@@ -3357,11 +3327,11 @@
         <v>30</v>
       </c>
       <c r="D16" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>60</v>
       </c>
       <c r="E16" s="28" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3C</v>
       </c>
       <c r="G16" s="20" t="s">
@@ -3374,19 +3344,15 @@
         <v>3.7610000000000001</v>
       </c>
       <c r="J16" s="16">
-        <f t="shared" si="0"/>
-        <v>6838.181818181818</v>
+        <f t="shared" si="1"/>
+        <v>6838</v>
       </c>
       <c r="K16" s="28" t="str">
         <f t="shared" si="2"/>
         <v>1AB6</v>
       </c>
-      <c r="X16">
-        <f t="shared" si="3"/>
-        <v>3761</v>
-      </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B17" s="20" t="s">
         <v>36</v>
       </c>
@@ -3394,11 +3360,11 @@
         <v>40</v>
       </c>
       <c r="D17" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>80</v>
       </c>
       <c r="E17" s="28" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="G17" s="20" t="s">
@@ -3411,19 +3377,15 @@
         <v>3.778</v>
       </c>
       <c r="J17" s="16">
-        <f t="shared" si="0"/>
-        <v>6869.0909090909081</v>
+        <f t="shared" si="1"/>
+        <v>6869</v>
       </c>
       <c r="K17" s="28" t="str">
         <f t="shared" si="2"/>
         <v>1AD5</v>
       </c>
-      <c r="X17">
-        <f t="shared" si="3"/>
-        <v>3778</v>
-      </c>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B18" s="20" t="s">
         <v>37</v>
       </c>
@@ -3431,11 +3393,11 @@
         <v>50</v>
       </c>
       <c r="D18" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
       <c r="E18" s="28" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>64</v>
       </c>
       <c r="G18" s="20" t="s">
@@ -3448,19 +3410,15 @@
         <v>3.802</v>
       </c>
       <c r="J18" s="16">
-        <f t="shared" si="0"/>
-        <v>6912.7272727272721</v>
+        <f t="shared" si="1"/>
+        <v>6913</v>
       </c>
       <c r="K18" s="28" t="str">
         <f t="shared" si="2"/>
-        <v>1B00</v>
-      </c>
-      <c r="X18">
-        <f t="shared" si="3"/>
-        <v>3802</v>
+        <v>1B01</v>
       </c>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B19" s="20" t="s">
         <v>38</v>
       </c>
@@ -3468,11 +3426,11 @@
         <v>60</v>
       </c>
       <c r="D19" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>120</v>
       </c>
       <c r="E19" s="28" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>78</v>
       </c>
       <c r="G19" s="20" t="s">
@@ -3485,19 +3443,15 @@
         <v>3.863</v>
       </c>
       <c r="J19" s="16">
-        <f t="shared" si="0"/>
-        <v>7023.6363636363631</v>
+        <f t="shared" si="1"/>
+        <v>7024</v>
       </c>
       <c r="K19" s="28" t="str">
         <f t="shared" si="2"/>
-        <v>1B6F</v>
-      </c>
-      <c r="X19">
-        <f t="shared" si="3"/>
-        <v>3863</v>
+        <v>1B70</v>
       </c>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B20" s="20" t="s">
         <v>39</v>
       </c>
@@ -3505,11 +3459,11 @@
         <v>65</v>
       </c>
       <c r="D20" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>130</v>
       </c>
       <c r="E20" s="28" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>82</v>
       </c>
       <c r="G20" s="20" t="s">
@@ -3522,19 +3476,15 @@
         <v>3.899</v>
       </c>
       <c r="J20" s="16">
-        <f t="shared" si="0"/>
-        <v>7089.0909090909081</v>
+        <f t="shared" si="1"/>
+        <v>7089</v>
       </c>
       <c r="K20" s="28" t="str">
         <f t="shared" si="2"/>
         <v>1BB1</v>
       </c>
-      <c r="X20">
-        <f t="shared" si="3"/>
-        <v>3899</v>
-      </c>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B21" s="20" t="s">
         <v>40</v>
       </c>
@@ -3542,11 +3492,11 @@
         <v>70</v>
       </c>
       <c r="D21" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>140</v>
       </c>
       <c r="E21" s="28" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>8C</v>
       </c>
       <c r="G21" s="20" t="s">
@@ -3559,19 +3509,15 @@
         <v>3.9289999999999998</v>
       </c>
       <c r="J21" s="16">
-        <f t="shared" si="0"/>
-        <v>7143.6363636363631</v>
+        <f t="shared" si="1"/>
+        <v>7144</v>
       </c>
       <c r="K21" s="28" t="str">
         <f t="shared" si="2"/>
-        <v>1BE7</v>
-      </c>
-      <c r="X21">
-        <f t="shared" si="3"/>
-        <v>3929</v>
+        <v>1BE8</v>
       </c>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B22" s="20" t="s">
         <v>41</v>
       </c>
@@ -3579,11 +3525,11 @@
         <v>80</v>
       </c>
       <c r="D22" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>160</v>
       </c>
       <c r="E22" s="28" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>A0</v>
       </c>
       <c r="G22" s="20" t="s">
@@ -3596,19 +3542,15 @@
         <v>3.9910000000000001</v>
       </c>
       <c r="J22" s="16">
-        <f t="shared" si="0"/>
-        <v>7256.363636363636</v>
+        <f t="shared" si="1"/>
+        <v>7256</v>
       </c>
       <c r="K22" s="28" t="str">
         <f t="shared" si="2"/>
         <v>1C58</v>
       </c>
-      <c r="X22">
-        <f t="shared" si="3"/>
-        <v>3991</v>
-      </c>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B23" s="20" t="s">
         <v>42</v>
       </c>
@@ -3616,11 +3558,11 @@
         <v>90</v>
       </c>
       <c r="D23" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>180</v>
       </c>
       <c r="E23" s="28" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>B4</v>
       </c>
       <c r="G23" s="20" t="s">
@@ -3633,19 +3575,15 @@
         <v>4.0759999999999996</v>
       </c>
       <c r="J23" s="16">
-        <f t="shared" si="0"/>
-        <v>7410.9090909090892</v>
+        <f t="shared" si="1"/>
+        <v>7411</v>
       </c>
       <c r="K23" s="28" t="str">
         <f t="shared" si="2"/>
-        <v>1CF2</v>
-      </c>
-      <c r="X23">
-        <f t="shared" si="3"/>
-        <v>4075.9999999999995</v>
+        <v>1CF3</v>
       </c>
     </row>
-    <row r="24" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B24" s="21" t="s">
         <v>43</v>
       </c>
@@ -3653,11 +3591,11 @@
         <v>100</v>
       </c>
       <c r="D24" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>200</v>
       </c>
       <c r="E24" s="29" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>C8</v>
       </c>
       <c r="G24" s="21" t="s">
@@ -3670,32 +3608,28 @@
         <v>4.1760000000000002</v>
       </c>
       <c r="J24" s="17">
-        <f t="shared" si="0"/>
-        <v>7592.7272727272721</v>
+        <f t="shared" si="1"/>
+        <v>7593</v>
       </c>
       <c r="K24" s="29" t="str">
         <f t="shared" si="2"/>
-        <v>1DA8</v>
-      </c>
-      <c r="X24">
-        <f t="shared" si="3"/>
-        <v>4176</v>
+        <v>1DA9</v>
       </c>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G25" s="9"/>
       <c r="H25" s="8"/>
       <c r="I25" s="9"/>
       <c r="J25" s="8"/>
       <c r="K25" s="8"/>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="28" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="29" spans="1:24" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="29" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B29" s="23" t="s">
         <v>6</v>
       </c>
@@ -3720,7 +3654,7 @@
       </c>
       <c r="K29" s="33"/>
     </row>
-    <row r="30" spans="1:24" ht="37.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" ht="37.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B30" s="26"/>
       <c r="C30" s="13"/>
       <c r="D30" s="14" t="s">
@@ -3741,7 +3675,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B31" s="19" t="s">
         <v>28</v>
       </c>
@@ -3766,15 +3700,15 @@
         <v>3.3</v>
       </c>
       <c r="J31" s="16">
-        <f t="shared" ref="J31:J46" si="5">I31*1000/0.55</f>
-        <v>5999.9999999999991</v>
+        <f>ROUND((I31*1000)/0.55, 0)</f>
+        <v>6000</v>
       </c>
       <c r="K31" s="28" t="str">
         <f>DEC2HEX(J31, 4)</f>
-        <v>176F</v>
+        <v>1770</v>
       </c>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B32" s="20" t="s">
         <v>29</v>
       </c>
@@ -3786,7 +3720,7 @@
         <v>6</v>
       </c>
       <c r="E32" s="28" t="str">
-        <f t="shared" ref="E32:E46" si="6">DEC2HEX(D32, 2)</f>
+        <f t="shared" ref="E32:E46" si="4">DEC2HEX(D32, 2)</f>
         <v>06</v>
       </c>
       <c r="G32" s="20" t="s">
@@ -3799,12 +3733,12 @@
         <v>3.5710000000000002</v>
       </c>
       <c r="J32" s="16">
-        <f t="shared" si="5"/>
-        <v>6492.7272727272721</v>
+        <f t="shared" ref="J32:J46" si="5">ROUND((I32*1000)/0.55, 0)</f>
+        <v>6493</v>
       </c>
       <c r="K32" s="28" t="str">
-        <f t="shared" ref="K32:K46" si="7">DEC2HEX(J32, 4)</f>
-        <v>195C</v>
+        <f t="shared" ref="K32:K46" si="6">DEC2HEX(J32, 4)</f>
+        <v>195D</v>
       </c>
     </row>
     <row r="33" spans="2:11" x14ac:dyDescent="0.25">
@@ -3815,11 +3749,11 @@
         <v>6</v>
       </c>
       <c r="D33" s="4">
-        <f t="shared" ref="D33:D46" si="8">C33/0.5</f>
+        <f t="shared" ref="D33:D46" si="7">C33/0.5</f>
         <v>12</v>
       </c>
       <c r="E33" s="28" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0C</v>
       </c>
       <c r="G33" s="20" t="s">
@@ -3833,10 +3767,10 @@
       </c>
       <c r="J33" s="16">
         <f t="shared" si="5"/>
-        <v>6638.181818181818</v>
+        <v>6638</v>
       </c>
       <c r="K33" s="28" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>19EE</v>
       </c>
     </row>
@@ -3848,11 +3782,11 @@
         <v>10</v>
       </c>
       <c r="D34" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>20</v>
       </c>
       <c r="E34" s="28" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>14</v>
       </c>
       <c r="G34" s="20" t="s">
@@ -3866,11 +3800,11 @@
       </c>
       <c r="J34" s="16">
         <f t="shared" si="5"/>
-        <v>6681.8181818181811</v>
+        <v>6682</v>
       </c>
       <c r="K34" s="28" t="str">
-        <f t="shared" si="7"/>
-        <v>1A19</v>
+        <f t="shared" si="6"/>
+        <v>1A1A</v>
       </c>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.25">
@@ -3881,11 +3815,11 @@
         <v>15</v>
       </c>
       <c r="D35" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>30</v>
       </c>
       <c r="E35" s="28" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>1E</v>
       </c>
       <c r="G35" s="20" t="s">
@@ -3899,10 +3833,10 @@
       </c>
       <c r="J35" s="16">
         <f t="shared" si="5"/>
-        <v>6745.454545454545</v>
+        <v>6745</v>
       </c>
       <c r="K35" s="28" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1A59</v>
       </c>
     </row>
@@ -3914,11 +3848,11 @@
         <v>20</v>
       </c>
       <c r="D36" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>40</v>
       </c>
       <c r="E36" s="28" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>28</v>
       </c>
       <c r="G36" s="20" t="s">
@@ -3932,10 +3866,10 @@
       </c>
       <c r="J36" s="16">
         <f t="shared" si="5"/>
-        <v>6805.454545454545</v>
+        <v>6805</v>
       </c>
       <c r="K36" s="28" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1A95</v>
       </c>
     </row>
@@ -3947,11 +3881,11 @@
         <v>25</v>
       </c>
       <c r="D37" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>50</v>
       </c>
       <c r="E37" s="28" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>32</v>
       </c>
       <c r="G37" s="20" t="s">
@@ -3965,10 +3899,10 @@
       </c>
       <c r="J37" s="16">
         <f t="shared" si="5"/>
-        <v>6838.181818181818</v>
+        <v>6838</v>
       </c>
       <c r="K37" s="28" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1AB6</v>
       </c>
     </row>
@@ -3980,11 +3914,11 @@
         <v>30</v>
       </c>
       <c r="D38" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>60</v>
       </c>
       <c r="E38" s="28" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>3C</v>
       </c>
       <c r="G38" s="20" t="s">
@@ -3998,11 +3932,11 @@
       </c>
       <c r="J38" s="16">
         <f t="shared" si="5"/>
-        <v>6854.545454545454</v>
+        <v>6855</v>
       </c>
       <c r="K38" s="28" t="str">
-        <f t="shared" si="7"/>
-        <v>1AC6</v>
+        <f t="shared" si="6"/>
+        <v>1AC7</v>
       </c>
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.25">
@@ -4013,11 +3947,11 @@
         <v>40</v>
       </c>
       <c r="D39" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>80</v>
       </c>
       <c r="E39" s="28" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>50</v>
       </c>
       <c r="G39" s="20" t="s">
@@ -4031,11 +3965,11 @@
       </c>
       <c r="J39" s="16">
         <f t="shared" si="5"/>
-        <v>6890.9090909090901</v>
+        <v>6891</v>
       </c>
       <c r="K39" s="28" t="str">
-        <f t="shared" si="7"/>
-        <v>1AEA</v>
+        <f t="shared" si="6"/>
+        <v>1AEB</v>
       </c>
     </row>
     <row r="40" spans="2:11" x14ac:dyDescent="0.25">
@@ -4046,11 +3980,11 @@
         <v>50</v>
       </c>
       <c r="D40" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>100</v>
       </c>
       <c r="E40" s="28" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>64</v>
       </c>
       <c r="G40" s="20" t="s">
@@ -4064,11 +3998,11 @@
       </c>
       <c r="J40" s="16">
         <f t="shared" si="5"/>
-        <v>6954.545454545454</v>
+        <v>6955</v>
       </c>
       <c r="K40" s="28" t="str">
-        <f t="shared" si="7"/>
-        <v>1B2A</v>
+        <f t="shared" si="6"/>
+        <v>1B2B</v>
       </c>
     </row>
     <row r="41" spans="2:11" x14ac:dyDescent="0.25">
@@ -4079,11 +4013,11 @@
         <v>60</v>
       </c>
       <c r="D41" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>120</v>
       </c>
       <c r="E41" s="28" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>78</v>
       </c>
       <c r="G41" s="20" t="s">
@@ -4097,10 +4031,10 @@
       </c>
       <c r="J41" s="16">
         <f t="shared" si="5"/>
-        <v>7116.363636363636</v>
+        <v>7116</v>
       </c>
       <c r="K41" s="28" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1BCC</v>
       </c>
     </row>
@@ -4112,11 +4046,11 @@
         <v>65</v>
       </c>
       <c r="D42" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>130</v>
       </c>
       <c r="E42" s="28" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>82</v>
       </c>
       <c r="G42" s="20" t="s">
@@ -4130,10 +4064,10 @@
       </c>
       <c r="J42" s="16">
         <f t="shared" si="5"/>
-        <v>7187.272727272727</v>
+        <v>7187</v>
       </c>
       <c r="K42" s="28" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1C13</v>
       </c>
     </row>
@@ -4145,11 +4079,11 @@
         <v>70</v>
       </c>
       <c r="D43" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>140</v>
       </c>
       <c r="E43" s="28" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>8C</v>
       </c>
       <c r="G43" s="20" t="s">
@@ -4163,11 +4097,11 @@
       </c>
       <c r="J43" s="16">
         <f t="shared" si="5"/>
-        <v>7254.545454545454</v>
+        <v>7255</v>
       </c>
       <c r="K43" s="28" t="str">
-        <f t="shared" si="7"/>
-        <v>1C56</v>
+        <f t="shared" si="6"/>
+        <v>1C57</v>
       </c>
     </row>
     <row r="44" spans="2:11" x14ac:dyDescent="0.25">
@@ -4178,11 +4112,11 @@
         <v>80</v>
       </c>
       <c r="D44" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>160</v>
       </c>
       <c r="E44" s="28" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>A0</v>
       </c>
       <c r="G44" s="20" t="s">
@@ -4196,11 +4130,11 @@
       </c>
       <c r="J44" s="16">
         <f t="shared" si="5"/>
-        <v>7432.7272727272721</v>
+        <v>7433</v>
       </c>
       <c r="K44" s="28" t="str">
-        <f t="shared" si="7"/>
-        <v>1D08</v>
+        <f t="shared" si="6"/>
+        <v>1D09</v>
       </c>
     </row>
     <row r="45" spans="2:11" x14ac:dyDescent="0.25">
@@ -4211,11 +4145,11 @@
         <v>90</v>
       </c>
       <c r="D45" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>180</v>
       </c>
       <c r="E45" s="28" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>B4</v>
       </c>
       <c r="G45" s="20" t="s">
@@ -4229,11 +4163,11 @@
       </c>
       <c r="J45" s="16">
         <f t="shared" si="5"/>
-        <v>7630.9090909090901</v>
+        <v>7631</v>
       </c>
       <c r="K45" s="28" t="str">
-        <f t="shared" si="7"/>
-        <v>1DCE</v>
+        <f t="shared" si="6"/>
+        <v>1DCF</v>
       </c>
     </row>
     <row r="46" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4244,11 +4178,11 @@
         <v>100</v>
       </c>
       <c r="D46" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>200</v>
       </c>
       <c r="E46" s="29" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>C8</v>
       </c>
       <c r="G46" s="21" t="s">
@@ -4262,11 +4196,11 @@
       </c>
       <c r="J46" s="17">
         <f t="shared" si="5"/>
-        <v>7841.8181818181811</v>
+        <v>7842</v>
       </c>
       <c r="K46" s="29" t="str">
-        <f t="shared" si="7"/>
-        <v>1EA1</v>
+        <f t="shared" si="6"/>
+        <v>1EA2</v>
       </c>
     </row>
   </sheetData>

--- a/Docs/Config/STC3117 OCV curve - default register values.xlsx
+++ b/Docs/Config/STC3117 OCV curve - default register values.xlsx
@@ -523,7 +523,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>OCV</a:t>
+              <a:t>OCV (4.2V max)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -718,11 +718,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="254725640"/>
-        <c:axId val="255380792"/>
+        <c:axId val="244492960"/>
+        <c:axId val="244493352"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="254725640"/>
+        <c:axId val="244492960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -836,12 +836,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="255380792"/>
+        <c:crossAx val="244493352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="255380792"/>
+        <c:axId val="244493352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="3"/>
@@ -959,7 +959,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="254725640"/>
+        <c:crossAx val="244492960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1051,7 +1051,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>OCV</a:t>
+              <a:t>OCV (4.35V max)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1243,11 +1243,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="254698888"/>
-        <c:axId val="254811928"/>
+        <c:axId val="244494136"/>
+        <c:axId val="244494528"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="254698888"/>
+        <c:axId val="244494136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -1361,12 +1361,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="254811928"/>
+        <c:crossAx val="244494528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="254811928"/>
+        <c:axId val="244494528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="3"/>
@@ -1484,7 +1484,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="254698888"/>
+        <c:crossAx val="244494136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
